--- a/Common system test environment address.xlsx
+++ b/Common system test environment address.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
   <si>
     <t>System</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,50 @@
   </si>
   <si>
     <t>The database of old customer relationship management system on Shanghai Telecom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.145.208.201:8090/pages/viewpage.action?pageId=8102866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The management system of test cases,requirements and bugs for new CRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.145.208.201:18000/testlink/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinyonggang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The management system of test cases for new CRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment/System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -540,12 +584,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -591,6 +655,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +670,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -619,6 +683,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -959,37 +1029,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
@@ -1002,10 +1072,10 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1027,57 +1097,57 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>95</v>
       </c>
@@ -1094,28 +1164,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
-        <v>29</v>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,76 +1209,72 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>21</v>
+      <c r="A15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="4">
-        <v>654321</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1208,44 +1286,72 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4">
+        <v>654321</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1253,17 +1359,19 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C15" r:id="rId6"/>
-    <hyperlink ref="C16" r:id="rId7"/>
-    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C19" r:id="rId8"/>
     <hyperlink ref="C11" r:id="rId9" location="/"/>
-    <hyperlink ref="C19" r:id="rId10"/>
-    <hyperlink ref="C21" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId10"/>
+    <hyperlink ref="C23" r:id="rId11"/>
     <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="C12" r:id="rId13"/>
+    <hyperlink ref="C13" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1414,7 +1522,7 @@
       <c r="H6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1437,7 +1545,7 @@
       <c r="H7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>

--- a/Common system test environment address.xlsx
+++ b/Common system test environment address.xlsx
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CcSs0Ft2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,6 +438,10 @@
   </si>
   <si>
     <t>Environment/System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CcSs0Ft2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,9 +655,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,6 +667,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,16 +679,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1029,39 +1029,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1072,20 +1072,20 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,59 +1097,59 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>93</v>
+      <c r="B7" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>33</v>
@@ -1165,39 +1165,39 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1242,39 +1242,39 @@
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1295,13 +1295,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4">
         <v>654321</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,14 +1326,19 @@
         <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
@@ -1347,11 +1352,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1403,16 +1403,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -1432,23 +1432,23 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1464,29 +1464,29 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1501,51 +1501,51 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
-        <v>53</v>
+      <c r="A6" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>57</v>
+      <c r="C6" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>90</v>
+      <c r="I6" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
@@ -1566,23 +1566,23 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1604,23 +1604,23 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1642,23 +1642,23 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1680,23 +1680,23 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
